--- a/Day wise tracker.xlsx
+++ b/Day wise tracker.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/57b5ca6df9311485/Desktop/Udemy/Python Course/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="116" documentId="8_{A48CCA7A-F28D-4CEC-8D28-556C41702FE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C01B0FEE-031D-4711-817A-D6D5487B8F62}"/>
+  <xr:revisionPtr revIDLastSave="117" documentId="8_{A48CCA7A-F28D-4CEC-8D28-556C41702FE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DEEC75D1-2488-4418-A0D3-204E6CACBB50}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CDE4CE16-4524-4BED-9790-32B3A6313FC0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="99">
   <si>
     <t>Python Udemy Certification</t>
   </si>
@@ -770,7 +770,7 @@
   <dimension ref="A1:E62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1045,7 +1045,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -1058,8 +1058,11 @@
       <c r="D17" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E17" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -1073,7 +1076,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -1087,7 +1090,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -1101,7 +1104,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -1115,7 +1118,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -1129,7 +1132,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -1143,7 +1146,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -1157,7 +1160,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -1171,7 +1174,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -1185,7 +1188,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -1199,7 +1202,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>30</v>
       </c>
@@ -1213,7 +1216,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>31</v>
       </c>
@@ -1227,7 +1230,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>32</v>
       </c>
@@ -1241,7 +1244,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>33</v>
       </c>
@@ -1255,7 +1258,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>34</v>
       </c>

--- a/Day wise tracker.xlsx
+++ b/Day wise tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/57b5ca6df9311485/Desktop/Udemy/Python Course/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="117" documentId="8_{A48CCA7A-F28D-4CEC-8D28-556C41702FE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DEEC75D1-2488-4418-A0D3-204E6CACBB50}"/>
+  <xr:revisionPtr revIDLastSave="118" documentId="8_{A48CCA7A-F28D-4CEC-8D28-556C41702FE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E2D4CDD4-6C9A-41AA-933F-D4C2E5864FA9}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CDE4CE16-4524-4BED-9790-32B3A6313FC0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="99">
   <si>
     <t>Python Udemy Certification</t>
   </si>
@@ -770,7 +770,7 @@
   <dimension ref="A1:E62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1075,6 +1075,9 @@
       <c r="D18" t="s">
         <v>67</v>
       </c>
+      <c r="E18" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">

--- a/Day wise tracker.xlsx
+++ b/Day wise tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/57b5ca6df9311485/Desktop/Udemy/Python Course/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="118" documentId="8_{A48CCA7A-F28D-4CEC-8D28-556C41702FE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E2D4CDD4-6C9A-41AA-933F-D4C2E5864FA9}"/>
+  <xr:revisionPtr revIDLastSave="125" documentId="8_{A48CCA7A-F28D-4CEC-8D28-556C41702FE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC29001C-A978-4CF0-A5EF-9F6420A30118}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CDE4CE16-4524-4BED-9790-32B3A6313FC0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="101">
   <si>
     <t>Python Udemy Certification</t>
   </si>
@@ -333,6 +333,12 @@
   </si>
   <si>
     <t>C</t>
+  </si>
+  <si>
+    <t>4-7 July</t>
+  </si>
+  <si>
+    <t>Home</t>
   </si>
 </sst>
 </file>
@@ -767,10 +773,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCA0B117-7917-4960-8EFD-7AC1B6A5469C}">
-  <dimension ref="A1:E62"/>
+  <dimension ref="A1:I62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -782,7 +788,7 @@
     <col min="5" max="5" width="11.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -790,7 +796,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
@@ -807,7 +813,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -824,7 +830,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -841,7 +847,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -858,7 +864,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -875,7 +881,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -891,8 +897,14 @@
       <c r="E7" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H7" t="s">
+        <v>99</v>
+      </c>
+      <c r="I7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -909,7 +921,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -926,7 +938,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -943,7 +955,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -960,7 +972,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -977,7 +989,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -994,7 +1006,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -1011,7 +1023,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -1028,7 +1040,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -1070,7 +1082,7 @@
         <v>66</v>
       </c>
       <c r="C18" s="1">
-        <v>45842</v>
+        <v>45846</v>
       </c>
       <c r="D18" t="s">
         <v>67</v>
@@ -1087,10 +1099,13 @@
         <v>66</v>
       </c>
       <c r="C19" s="1">
-        <v>45843</v>
+        <v>45847</v>
       </c>
       <c r="D19" t="s">
         <v>67</v>
+      </c>
+      <c r="E19" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -1101,7 +1116,7 @@
         <v>66</v>
       </c>
       <c r="C20" s="1">
-        <v>45844</v>
+        <v>45848</v>
       </c>
       <c r="D20" t="s">
         <v>67</v>
@@ -1115,7 +1130,7 @@
         <v>66</v>
       </c>
       <c r="C21" s="1">
-        <v>45845</v>
+        <v>45849</v>
       </c>
       <c r="D21" t="s">
         <v>67</v>
@@ -1129,7 +1144,7 @@
         <v>66</v>
       </c>
       <c r="C22" s="1">
-        <v>45846</v>
+        <v>45850</v>
       </c>
       <c r="D22" t="s">
         <v>67</v>
@@ -1143,7 +1158,7 @@
         <v>68</v>
       </c>
       <c r="C23" s="1">
-        <v>45847</v>
+        <v>45851</v>
       </c>
       <c r="D23" t="s">
         <v>69</v>
@@ -1157,7 +1172,7 @@
         <v>68</v>
       </c>
       <c r="C24" s="1">
-        <v>45848</v>
+        <v>45852</v>
       </c>
       <c r="D24" t="s">
         <v>69</v>
@@ -1171,7 +1186,7 @@
         <v>68</v>
       </c>
       <c r="C25" s="1">
-        <v>45849</v>
+        <v>45853</v>
       </c>
       <c r="D25" t="s">
         <v>69</v>
@@ -1185,7 +1200,7 @@
         <v>68</v>
       </c>
       <c r="C26" s="1">
-        <v>45850</v>
+        <v>45854</v>
       </c>
       <c r="D26" t="s">
         <v>70</v>
@@ -1199,7 +1214,7 @@
         <v>68</v>
       </c>
       <c r="C27" s="1">
-        <v>45851</v>
+        <v>45855</v>
       </c>
       <c r="D27" t="s">
         <v>71</v>
@@ -1213,7 +1228,7 @@
         <v>68</v>
       </c>
       <c r="C28" s="1">
-        <v>45852</v>
+        <v>45856</v>
       </c>
       <c r="D28" t="s">
         <v>71</v>
@@ -1227,7 +1242,7 @@
         <v>72</v>
       </c>
       <c r="C29" s="1">
-        <v>45853</v>
+        <v>45857</v>
       </c>
       <c r="D29" t="s">
         <v>73</v>
@@ -1241,7 +1256,7 @@
         <v>72</v>
       </c>
       <c r="C30" s="1">
-        <v>45854</v>
+        <v>45858</v>
       </c>
       <c r="D30" t="s">
         <v>73</v>
@@ -1255,7 +1270,7 @@
         <v>72</v>
       </c>
       <c r="C31" s="1">
-        <v>45855</v>
+        <v>45859</v>
       </c>
       <c r="D31" t="s">
         <v>74</v>
@@ -1269,7 +1284,7 @@
         <v>72</v>
       </c>
       <c r="C32" s="1">
-        <v>45856</v>
+        <v>45860</v>
       </c>
       <c r="D32" t="s">
         <v>74</v>
@@ -1283,7 +1298,7 @@
         <v>72</v>
       </c>
       <c r="C33" s="1">
-        <v>45857</v>
+        <v>45861</v>
       </c>
       <c r="D33" t="s">
         <v>74</v>
@@ -1297,7 +1312,7 @@
         <v>75</v>
       </c>
       <c r="C34" s="1">
-        <v>45858</v>
+        <v>45862</v>
       </c>
       <c r="D34" t="s">
         <v>76</v>
@@ -1311,7 +1326,7 @@
         <v>75</v>
       </c>
       <c r="C35" s="1">
-        <v>45859</v>
+        <v>45863</v>
       </c>
       <c r="D35" t="s">
         <v>76</v>
@@ -1325,7 +1340,7 @@
         <v>75</v>
       </c>
       <c r="C36" s="1">
-        <v>45860</v>
+        <v>45864</v>
       </c>
       <c r="D36" t="s">
         <v>77</v>
@@ -1339,7 +1354,7 @@
         <v>75</v>
       </c>
       <c r="C37" s="1">
-        <v>45861</v>
+        <v>45865</v>
       </c>
       <c r="D37" t="s">
         <v>77</v>
@@ -1353,7 +1368,7 @@
         <v>75</v>
       </c>
       <c r="C38" s="1">
-        <v>45862</v>
+        <v>45866</v>
       </c>
       <c r="D38" t="s">
         <v>78</v>
@@ -1367,7 +1382,7 @@
         <v>75</v>
       </c>
       <c r="C39" s="1">
-        <v>45863</v>
+        <v>45867</v>
       </c>
       <c r="D39" t="s">
         <v>78</v>
@@ -1381,7 +1396,7 @@
         <v>79</v>
       </c>
       <c r="C40" s="1">
-        <v>45864</v>
+        <v>45868</v>
       </c>
       <c r="D40" t="s">
         <v>80</v>
@@ -1395,7 +1410,7 @@
         <v>79</v>
       </c>
       <c r="C41" s="1">
-        <v>45865</v>
+        <v>45869</v>
       </c>
       <c r="D41" t="s">
         <v>80</v>
@@ -1409,7 +1424,7 @@
         <v>81</v>
       </c>
       <c r="C42" s="1">
-        <v>45866</v>
+        <v>45870</v>
       </c>
       <c r="D42" t="s">
         <v>83</v>
@@ -1423,7 +1438,7 @@
         <v>81</v>
       </c>
       <c r="C43" s="1">
-        <v>45867</v>
+        <v>45871</v>
       </c>
       <c r="D43" t="s">
         <v>84</v>
@@ -1437,7 +1452,7 @@
         <v>81</v>
       </c>
       <c r="C44" s="1">
-        <v>45868</v>
+        <v>45872</v>
       </c>
       <c r="D44" t="s">
         <v>84</v>
@@ -1451,7 +1466,7 @@
         <v>81</v>
       </c>
       <c r="C45" s="1">
-        <v>45869</v>
+        <v>45873</v>
       </c>
       <c r="D45" t="s">
         <v>84</v>
@@ -1465,7 +1480,7 @@
         <v>81</v>
       </c>
       <c r="C46" s="1">
-        <v>45870</v>
+        <v>45874</v>
       </c>
       <c r="D46" t="s">
         <v>82</v>
@@ -1479,7 +1494,7 @@
         <v>85</v>
       </c>
       <c r="C47" s="1">
-        <v>45871</v>
+        <v>45875</v>
       </c>
       <c r="D47" t="s">
         <v>91</v>
@@ -1493,7 +1508,7 @@
         <v>85</v>
       </c>
       <c r="C48" s="1">
-        <v>45872</v>
+        <v>45876</v>
       </c>
       <c r="D48" t="s">
         <v>91</v>
@@ -1507,7 +1522,7 @@
         <v>85</v>
       </c>
       <c r="C49" s="1">
-        <v>45873</v>
+        <v>45877</v>
       </c>
       <c r="D49" t="s">
         <v>91</v>
@@ -1521,7 +1536,7 @@
         <v>85</v>
       </c>
       <c r="C50" s="1">
-        <v>45874</v>
+        <v>45878</v>
       </c>
       <c r="D50" t="s">
         <v>92</v>
@@ -1535,7 +1550,7 @@
         <v>85</v>
       </c>
       <c r="C51" s="1">
-        <v>45875</v>
+        <v>45879</v>
       </c>
       <c r="D51" t="s">
         <v>93</v>
@@ -1549,7 +1564,7 @@
         <v>86</v>
       </c>
       <c r="C52" s="1">
-        <v>45876</v>
+        <v>45880</v>
       </c>
       <c r="D52" t="s">
         <v>94</v>
@@ -1563,7 +1578,7 @@
         <v>86</v>
       </c>
       <c r="C53" s="1">
-        <v>45877</v>
+        <v>45881</v>
       </c>
       <c r="D53" t="s">
         <v>94</v>
@@ -1577,7 +1592,7 @@
         <v>86</v>
       </c>
       <c r="C54" s="1">
-        <v>45878</v>
+        <v>45882</v>
       </c>
       <c r="D54" t="s">
         <v>95</v>
@@ -1591,7 +1606,7 @@
         <v>86</v>
       </c>
       <c r="C55" s="1">
-        <v>45879</v>
+        <v>45883</v>
       </c>
       <c r="D55" t="s">
         <v>95</v>
@@ -1605,7 +1620,7 @@
         <v>86</v>
       </c>
       <c r="C56" s="1">
-        <v>45880</v>
+        <v>45884</v>
       </c>
       <c r="D56" t="s">
         <v>95</v>
@@ -1619,7 +1634,7 @@
         <v>86</v>
       </c>
       <c r="C57" s="1">
-        <v>45881</v>
+        <v>45885</v>
       </c>
       <c r="D57" t="s">
         <v>96</v>
@@ -1633,7 +1648,7 @@
         <v>86</v>
       </c>
       <c r="C58" s="1">
-        <v>45882</v>
+        <v>45886</v>
       </c>
       <c r="D58" t="s">
         <v>96</v>
@@ -1647,7 +1662,7 @@
         <v>86</v>
       </c>
       <c r="C59" s="1">
-        <v>45883</v>
+        <v>45887</v>
       </c>
       <c r="D59" t="s">
         <v>96</v>
@@ -1661,7 +1676,7 @@
         <v>87</v>
       </c>
       <c r="C60" s="1">
-        <v>45884</v>
+        <v>45888</v>
       </c>
       <c r="D60" t="s">
         <v>89</v>
@@ -1675,7 +1690,7 @@
         <v>87</v>
       </c>
       <c r="C61" s="1">
-        <v>45885</v>
+        <v>45889</v>
       </c>
       <c r="D61" t="s">
         <v>89</v>
@@ -1689,7 +1704,7 @@
         <v>88</v>
       </c>
       <c r="C62" s="1">
-        <v>45886</v>
+        <v>45890</v>
       </c>
       <c r="D62" t="s">
         <v>90</v>
